--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3439.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3439.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.328638001037958</v>
+        <v>1.344089388847351</v>
       </c>
       <c r="B1">
-        <v>2.930581624715739</v>
+        <v>2.514552116394043</v>
       </c>
       <c r="C1">
-        <v>3.66813389436906</v>
+        <v>5.771359443664551</v>
       </c>
       <c r="D1">
-        <v>3.985856456736169</v>
+        <v>1.917012333869934</v>
       </c>
       <c r="E1">
-        <v>1.127621926120098</v>
+        <v>1.255420088768005</v>
       </c>
     </row>
   </sheetData>
